--- a/household_bill.xlsx
+++ b/household_bill.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="168">
   <si>
     <t xml:space="preserve">Debit</t>
   </si>
@@ -502,16 +502,44 @@
   </si>
   <si>
     <t xml:space="preserve">Egg + chips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rice,salt,dal,paste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chcken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sabji(Swarup)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">big basket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -654,7 +682,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -732,6 +760,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -818,7 +850,7 @@
       <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
@@ -1583,15 +1615,15 @@
       <selection pane="bottomLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.77"/>
   </cols>
   <sheetData>
@@ -4218,7 +4250,7 @@
       <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.77"/>
@@ -7319,12 +7351,12 @@
       <selection pane="topLeft" activeCell="P83" activeCellId="0" sqref="P83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11418,12 +11450,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="7.67"/>
   </cols>
   <sheetData>
@@ -14460,13 +14492,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -14588,6 +14620,575 @@
       </c>
       <c r="N3" s="0" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="n">
+        <v>43932</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <f aca="false">180/3</f>
+        <v>60</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">180/3</f>
+        <v>60</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">180/3</f>
+        <v>60</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="n">
+        <v>43932</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <f aca="false">436/3</f>
+        <v>145.333333333333</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">436/3</f>
+        <v>145.333333333333</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">436/3</f>
+        <v>145.333333333333</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">150+220+18+48</f>
+        <v>436</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>436</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="n">
+        <v>43932</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">50/3</f>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">50/3</f>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">50/3</f>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="n">
+        <v>43932</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">120/3</f>
+        <v>40</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">120/3</f>
+        <v>40</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">120/3</f>
+        <v>40</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="n">
+        <v>43932</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">40/2</f>
+        <v>20</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">20</f>
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="n">
+        <v>43932</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="n">
+        <v>43932</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19" t="n">
+        <v>43932</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">20/3</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">20/3</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">20/3</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="n">
+        <v>43932</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19" t="n">
+        <v>43936</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">136/3</f>
+        <v>45.3333333333333</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">136/3</f>
+        <v>45.3333333333333</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">136/3</f>
+        <v>45.3333333333333</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="n">
+        <v>43938</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <f aca="false">502/3</f>
+        <v>167.333333333333</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <f aca="false">502/3</f>
+        <v>167.333333333333</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">502/3</f>
+        <v>167.333333333333</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">631-129</f>
+        <v>502</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>502</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="n">
+        <v>43938</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">129/2</f>
+        <v>64.5</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">129</f>
+        <v>129</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q21" s="0" t="n">
+        <f aca="false">SUM(Q5:Q19)</f>
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="0" t="n">
+        <f aca="false">SUM(F2:F13)</f>
+        <v>1942</v>
       </c>
     </row>
   </sheetData>

--- a/household_bill.xlsx
+++ b/household_bill.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="170">
   <si>
     <t xml:space="preserve">Debit</t>
   </si>
@@ -529,6 +529,12 @@
   </si>
   <si>
     <t xml:space="preserve">cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sabun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buscuit</t>
   </si>
 </sst>
 </file>
@@ -14492,13 +14498,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -14513,30 +14519,24 @@
       <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>8</v>
       </c>
+      <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14557,32 +14557,26 @@
         <v>175.333333333333</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <f aca="false">526</f>
         <v>526</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>157</v>
       </c>
+      <c r="I2" s="0" t="n">
+        <v>526</v>
+      </c>
       <c r="J2" s="0" t="n">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="n">
         <v>43930</v>
       </c>
@@ -14597,28 +14591,22 @@
         <v>22</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <f aca="false">SUM(B3:D3)</f>
         <v>90</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>158</v>
       </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="M3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>24</v>
       </c>
     </row>
@@ -14639,27 +14627,21 @@
         <v>60</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="I4" s="0" t="n">
+        <v>180</v>
+      </c>
       <c r="J4" s="0" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>24</v>
       </c>
     </row>
@@ -14680,34 +14662,28 @@
         <v>145.333333333333</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <f aca="false">150+220+18+48</f>
         <v>436</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>159</v>
       </c>
+      <c r="I5" s="0" t="n">
+        <v>436</v>
+      </c>
       <c r="J5" s="0" t="n">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>0</v>
+      <c r="L5" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>150</v>
       </c>
     </row>
@@ -14728,33 +14704,27 @@
         <v>16.6666666666667</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="I6" s="0" t="n">
+        <v>50</v>
+      </c>
       <c r="J6" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>0</v>
+      <c r="L6" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>300</v>
       </c>
     </row>
@@ -14775,33 +14745,27 @@
         <v>40</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="I7" s="0" t="n">
+        <v>120</v>
+      </c>
       <c r="J7" s="0" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>0</v>
+      <c r="L7" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>220</v>
       </c>
     </row>
@@ -14821,33 +14785,27 @@
         <v>20</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>62</v>
       </c>
+      <c r="I8" s="0" t="n">
+        <v>40</v>
+      </c>
       <c r="J8" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>0</v>
+      <c r="L8" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>40</v>
       </c>
     </row>
@@ -14865,33 +14823,27 @@
         <v>12</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>63</v>
       </c>
+      <c r="I9" s="0" t="n">
+        <v>24</v>
+      </c>
       <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>18</v>
       </c>
     </row>
@@ -14909,33 +14861,27 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>161</v>
       </c>
+      <c r="I10" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="J10" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>0</v>
+      <c r="L10" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>48</v>
       </c>
     </row>
@@ -14956,33 +14902,27 @@
         <v>6.66666666666667</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>162</v>
       </c>
+      <c r="I11" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="J11" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>0</v>
+      <c r="L11" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>180</v>
       </c>
     </row>
@@ -15000,33 +14940,27 @@
         <v>150</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>78</v>
       </c>
+      <c r="I12" s="0" t="n">
+        <v>300</v>
+      </c>
       <c r="J12" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>0</v>
+      <c r="L12" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>200</v>
       </c>
     </row>
@@ -15047,33 +14981,27 @@
         <v>45.3333333333333</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>136</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>164</v>
       </c>
+      <c r="I13" s="0" t="n">
+        <v>136</v>
+      </c>
       <c r="J13" s="0" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>0</v>
+      <c r="L13" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>50</v>
       </c>
     </row>
@@ -15094,34 +15022,28 @@
         <v>167.333333333333</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <f aca="false">631-129</f>
         <v>502</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>165</v>
       </c>
+      <c r="I14" s="0" t="n">
+        <v>502</v>
+      </c>
       <c r="J14" s="0" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>0</v>
+      <c r="L14" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>30</v>
       </c>
     </row>
@@ -15140,55 +15062,393 @@
         <v>64.5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <f aca="false">129</f>
         <v>129</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>166</v>
       </c>
+      <c r="I15" s="0" t="n">
+        <v>129</v>
+      </c>
       <c r="J15" s="0" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>0</v>
+      <c r="L15" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="N15" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <f aca="false">120/3</f>
+        <v>40</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <f aca="false">120/3</f>
+        <v>40</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">120/3</f>
+        <v>40</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">120</f>
+        <v>120</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="L16" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P16" s="0" t="s">
+      <c r="N16" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q21" s="0" t="n">
-        <f aca="false">SUM(Q5:Q19)</f>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <f aca="false">440/3</f>
+        <v>146.666666666667</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">440/3</f>
+        <v>146.666666666667</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">440/3</f>
+        <v>146.666666666667</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <f aca="false">50/3</f>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <f aca="false">50/3</f>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">50/3</f>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">50</f>
+        <v>50</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <f aca="false">56/3</f>
+        <v>18.6666666666667</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <f aca="false">56/3</f>
+        <v>18.6666666666667</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">56/3</f>
+        <v>18.6666666666667</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">28*2</f>
+        <v>56</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">48/3</f>
+        <v>16</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">48/3</f>
+        <v>16</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">48/3</f>
+        <v>16</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">48</f>
+        <v>48</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <f aca="false">SUM(O5:O19)</f>
         <v>1520</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="0" t="n">
-        <f aca="false">SUM(F2:F13)</f>
-        <v>1942</v>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20" t="n">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="n">
+        <f aca="false">SUM(B2:B29)</f>
+        <v>1254.16666666667</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">SUM(C2:C29)</f>
+        <v>936.666666666666</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">SUM(D2:D29)</f>
+        <v>1230.16666666667</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">SUM(E2:E29)</f>
+        <v>3421</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">SUM(F2:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">SUM(G2:G29)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <f aca="false">SUM(H2:H29)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <f aca="false">SUM(I2:I29)</f>
+        <v>2483</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <f aca="false">SUM(J2:J29)</f>
+        <v>14</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">SUM(K2:K29)</f>
+        <v>924</v>
       </c>
     </row>
   </sheetData>

--- a/household_bill.xlsx
+++ b/household_bill.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="173">
   <si>
     <t xml:space="preserve">Debit</t>
   </si>
@@ -507,18 +507,12 @@
     <t xml:space="preserve">rice,salt,dal,paste</t>
   </si>
   <si>
-    <t xml:space="preserve">dal</t>
-  </si>
-  <si>
     <t xml:space="preserve">auto1</t>
   </si>
   <si>
     <t xml:space="preserve">Auto 2</t>
   </si>
   <si>
-    <t xml:space="preserve">chcken</t>
-  </si>
-  <si>
     <t xml:space="preserve">sabji(Swarup)</t>
   </si>
   <si>
@@ -528,13 +522,28 @@
     <t xml:space="preserve">apple</t>
   </si>
   <si>
-    <t xml:space="preserve">cash</t>
-  </si>
-  <si>
     <t xml:space="preserve">sabun</t>
   </si>
   <si>
     <t xml:space="preserve">buscuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garbage bag and scrub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">susmita paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swarup previous</t>
   </si>
 </sst>
 </file>
@@ -856,7 +865,7 @@
       <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
@@ -1621,7 +1630,7 @@
       <selection pane="bottomLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
@@ -4256,7 +4265,7 @@
       <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.77"/>
@@ -6776,7 +6785,7 @@
       </c>
       <c r="R59" s="17" t="n">
         <f aca="false">SUM(R54:R57)</f>
-        <v>4346.00333333333</v>
+        <v>4346.00333333334</v>
       </c>
       <c r="S59" s="17" t="n">
         <f aca="false">SUM(S54:S57)</f>
@@ -6784,7 +6793,7 @@
       </c>
       <c r="T59" s="17" t="n">
         <f aca="false">SUM(T54:T57)</f>
-        <v>0.00333333333355768</v>
+        <v>0.00333333333429664</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7357,7 +7366,7 @@
       <selection pane="topLeft" activeCell="P83" activeCellId="0" sqref="P83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
@@ -11452,11 +11461,11 @@
   </sheetPr>
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O69" activeCellId="0" sqref="O69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
@@ -11505,7 +11514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>43891</v>
       </c>
@@ -11544,10 +11553,10 @@
         <v>0</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>43891</v>
       </c>
@@ -11585,10 +11594,10 @@
         <v>0</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>43891</v>
       </c>
@@ -11627,10 +11636,10 @@
         <v>105</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>43891</v>
       </c>
@@ -11669,10 +11678,10 @@
         <v>70</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>43891</v>
       </c>
@@ -11711,10 +11720,10 @@
         <v>50</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>43892</v>
       </c>
@@ -11753,10 +11762,10 @@
         <v>0</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>43892</v>
       </c>
@@ -11793,10 +11802,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>43894</v>
       </c>
@@ -11835,10 +11844,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>43893</v>
       </c>
@@ -11873,10 +11882,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>43894</v>
       </c>
@@ -11911,10 +11920,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>43894</v>
       </c>
@@ -11949,10 +11958,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>43896</v>
       </c>
@@ -11987,10 +11996,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>43896</v>
       </c>
@@ -12027,10 +12036,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>43896</v>
       </c>
@@ -12067,10 +12076,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>43896</v>
       </c>
@@ -12105,10 +12114,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>43896</v>
       </c>
@@ -12145,10 +12154,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>43896</v>
       </c>
@@ -12185,10 +12194,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>43896</v>
       </c>
@@ -12223,10 +12232,10 @@
         <v>0</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>43898</v>
       </c>
@@ -12261,10 +12270,10 @@
         <v>0</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>43898</v>
       </c>
@@ -12299,10 +12308,10 @@
         <v>0</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>43898</v>
       </c>
@@ -12341,10 +12350,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>43898</v>
       </c>
@@ -12384,10 +12393,10 @@
         <v>0</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>43898</v>
       </c>
@@ -12426,10 +12435,10 @@
         <v>0</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>43898</v>
       </c>
@@ -12464,10 +12473,10 @@
         <v>0</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>43899</v>
       </c>
@@ -12505,10 +12514,10 @@
         <v>0</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>43899</v>
       </c>
@@ -12544,10 +12553,10 @@
         <v>0</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>43900</v>
       </c>
@@ -12582,10 +12591,10 @@
         <v>0</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>43902</v>
       </c>
@@ -12623,10 +12632,10 @@
         <v>0</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>43902</v>
       </c>
@@ -12662,10 +12671,10 @@
         <v>0</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>43906</v>
       </c>
@@ -12704,10 +12713,10 @@
         <v>0</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>43906</v>
       </c>
@@ -12742,10 +12751,10 @@
         <v>0</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>43906</v>
       </c>
@@ -12784,10 +12793,10 @@
         <v>0</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>43904</v>
       </c>
@@ -12822,10 +12831,10 @@
         <v>0</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>43904</v>
       </c>
@@ -12864,10 +12873,10 @@
         <v>0</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>43907</v>
       </c>
@@ -12902,10 +12911,10 @@
         <v>0</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>43907</v>
       </c>
@@ -12940,10 +12949,10 @@
         <v>0</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>43900</v>
       </c>
@@ -12978,7 +12987,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13020,10 +13029,10 @@
         <v>0</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>43907</v>
       </c>
@@ -13059,10 +13068,10 @@
         <v>0</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>43910</v>
       </c>
@@ -13100,10 +13109,10 @@
         <v>0</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>43910</v>
       </c>
@@ -13141,10 +13150,10 @@
         <v>0</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>43910</v>
       </c>
@@ -13179,10 +13188,10 @@
         <v>0</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>43909</v>
       </c>
@@ -13221,10 +13230,10 @@
         <v>0</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>43909</v>
       </c>
@@ -13262,10 +13271,10 @@
         <v>0</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>43910</v>
       </c>
@@ -13300,10 +13309,10 @@
         <v>0</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>43911</v>
       </c>
@@ -13335,10 +13344,10 @@
         <v>0</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
         <v>43913</v>
       </c>
@@ -13376,10 +13385,10 @@
         <v>0</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>43913</v>
       </c>
@@ -13414,10 +13423,10 @@
         <v>0</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>43913</v>
       </c>
@@ -13452,10 +13461,10 @@
         <v>0</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>43913</v>
       </c>
@@ -13490,10 +13499,10 @@
         <v>0</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>43917</v>
       </c>
@@ -13531,10 +13540,10 @@
         <v>0</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>43917</v>
       </c>
@@ -13572,10 +13581,10 @@
         <v>0</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>43917</v>
       </c>
@@ -13614,10 +13623,10 @@
         <v>0</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>43919</v>
       </c>
@@ -13655,10 +13664,10 @@
         <v>0</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>43919</v>
       </c>
@@ -13697,10 +13706,10 @@
         <v>0</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>43920</v>
       </c>
@@ -13738,10 +13747,10 @@
         <v>0</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>43920</v>
       </c>
@@ -13776,10 +13785,10 @@
         <v>0</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>43922</v>
       </c>
@@ -13818,10 +13827,10 @@
         <v>0</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>43922</v>
       </c>
@@ -13856,10 +13865,10 @@
         <v>0</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>43922</v>
       </c>
@@ -13894,10 +13903,10 @@
         <v>0</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>43922</v>
       </c>
@@ -13932,10 +13941,10 @@
         <v>0</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
         <v>43922</v>
       </c>
@@ -13970,10 +13979,10 @@
         <v>0</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <v>43922</v>
       </c>
@@ -14010,10 +14019,10 @@
         <v>0</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>43922</v>
       </c>
@@ -14048,7 +14057,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q65" s="17" t="s">
         <v>26</v>
@@ -14063,7 +14072,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>43926</v>
       </c>
@@ -14098,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q66" s="17" t="s">
         <v>3</v>
@@ -14116,7 +14125,7 @@
         <v>-2570.16666666667</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>43926</v>
       </c>
@@ -14152,7 +14161,7 @@
         <v>0</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q67" s="17" t="s">
         <v>4</v>
@@ -14170,7 +14179,7 @@
         <v>191.833333333333</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <v>43926</v>
       </c>
@@ -14205,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q68" s="17" t="s">
         <v>5</v>
@@ -14262,7 +14271,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q69" s="17" t="s">
         <v>6</v>
@@ -14315,7 +14324,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q70" s="17"/>
       <c r="R70" s="17"/>
@@ -14360,14 +14369,14 @@
         <v>312.5</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q71" s="17"/>
       <c r="R71" s="17"/>
       <c r="S71" s="17"/>
       <c r="T71" s="17"/>
     </row>
-    <row r="72" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>43928</v>
       </c>
@@ -14402,7 +14411,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q72" s="17"/>
       <c r="R72" s="17"/>
@@ -14415,7 +14424,7 @@
       </c>
       <c r="R73" s="17" t="n">
         <f aca="false">SUM(R66:R69)</f>
-        <v>9324.5</v>
+        <v>9324.49999999999</v>
       </c>
       <c r="S73" s="17" t="n">
         <f aca="false">SUM(S66:S69)</f>
@@ -14498,13 +14507,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -14680,9 +14689,6 @@
       <c r="L5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="0" t="s">
-        <v>160</v>
-      </c>
       <c r="O5" s="0" t="n">
         <v>150</v>
       </c>
@@ -14721,9 +14727,6 @@
       <c r="L6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="O6" s="0" t="n">
         <v>300</v>
       </c>
@@ -14762,9 +14765,6 @@
       <c r="L7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="O7" s="0" t="n">
         <v>220</v>
       </c>
@@ -14802,9 +14802,6 @@
       <c r="L8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="O8" s="0" t="n">
         <v>40</v>
       </c>
@@ -14840,9 +14837,6 @@
       <c r="L9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="0" t="s">
-        <v>137</v>
-      </c>
       <c r="O9" s="0" t="n">
         <v>18</v>
       </c>
@@ -14864,7 +14858,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>20</v>
@@ -14877,9 +14871,6 @@
       </c>
       <c r="L10" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>48</v>
@@ -14905,7 +14896,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>20</v>
@@ -14918,9 +14909,6 @@
       </c>
       <c r="L11" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>163</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>180</v>
@@ -14957,9 +14945,6 @@
       <c r="L12" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="O12" s="0" t="n">
         <v>200</v>
       </c>
@@ -14984,7 +14969,7 @@
         <v>136</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>136</v>
@@ -14998,15 +14983,12 @@
       <c r="L13" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="O13" s="0" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="n">
+      <c r="A14" s="19" t="n">
         <v>43938</v>
       </c>
       <c r="B14" s="0" t="n">
@@ -15026,7 +15008,7 @@
         <v>502</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>502</v>
@@ -15040,15 +15022,12 @@
       <c r="L14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="0" t="s">
-        <v>129</v>
-      </c>
       <c r="O14" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
+      <c r="A15" s="19" t="n">
         <v>43938</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -15066,7 +15045,7 @@
         <v>129</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>129</v>
@@ -15080,15 +15059,12 @@
       <c r="L15" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="0" t="s">
-        <v>167</v>
-      </c>
       <c r="O15" s="0" t="n">
         <v>260</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="n">
+      <c r="A16" s="19" t="n">
         <v>43939</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -15122,15 +15098,12 @@
       <c r="L16" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="O16" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="n">
+      <c r="A17" s="19" t="n">
         <v>43939</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -15165,7 +15138,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="n">
+      <c r="A18" s="19" t="n">
         <v>43939</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -15201,7 +15174,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="n">
+      <c r="A19" s="19" t="n">
         <v>43939</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -15237,7 +15210,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="n">
+      <c r="A20" s="19" t="n">
         <v>43939</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -15273,7 +15246,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="n">
+      <c r="A21" s="19" t="n">
         <v>43939</v>
       </c>
       <c r="B21" s="0" t="n">
@@ -15289,7 +15262,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>0</v>
@@ -15309,7 +15282,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="n">
+      <c r="A22" s="19" t="n">
         <v>43939</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -15341,7 +15314,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="n">
+      <c r="A23" s="19" t="n">
         <v>43939</v>
       </c>
       <c r="B23" s="0" t="n">
@@ -15373,7 +15346,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="n">
+      <c r="A24" s="19" t="n">
         <v>43939</v>
       </c>
       <c r="B24" s="0" t="n">
@@ -15389,7 +15362,7 @@
         <v>40</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>0</v>
@@ -15405,50 +15378,304 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="n">
+      <c r="A25" s="19" t="n">
         <v>43939</v>
       </c>
+      <c r="B25" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20" t="n">
+        <v>43944</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">644/3</f>
+        <v>214.666666666667</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">644/3</f>
+        <v>214.666666666667</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">644/3</f>
+        <v>214.666666666667</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">99+19+136+130*3</f>
+        <v>644</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>644</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="20" t="n">
+        <v>43944</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">105/2</f>
+        <v>52.5</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">40+35+30+20</f>
+        <v>125</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="20" t="n">
+        <v>43944</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">142/2</f>
+        <v>71</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="20" t="n">
+        <v>43944</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">158/2</f>
+        <v>79</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="20" t="n">
+        <v>43944</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">560/3</f>
+        <v>186.666666666667</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">560/3</f>
+        <v>186.666666666667</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">560/3</f>
+        <v>186.666666666667</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">104+64+200+232-40</f>
+        <v>560</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>560</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20" t="n">
+        <v>43944</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20" t="n">
+        <v>43944</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>2378</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2378</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>2378</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="n">
-        <f aca="false">SUM(B2:B29)</f>
-        <v>1254.16666666667</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <f aca="false">SUM(C2:C29)</f>
-        <v>936.666666666666</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <f aca="false">SUM(D2:D29)</f>
-        <v>1230.16666666667</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <f aca="false">SUM(E2:E29)</f>
-        <v>3421</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <f aca="false">SUM(F2:F29)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <f aca="false">SUM(G2:G29)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <f aca="false">SUM(H2:H29)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <f aca="false">SUM(I2:I29)</f>
-        <v>2483</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <f aca="false">SUM(J2:J29)</f>
-        <v>14</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <f aca="false">SUM(K2:K29)</f>
-        <v>924</v>
+      <c r="A33" s="20" t="n">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="20" t="n">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="20" t="n">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="n">
+        <f aca="false">SUM(B2:B35)</f>
+        <v>1888</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <f aca="false">SUM(C2:C35)</f>
+        <v>1532</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <f aca="false">SUM(D2:D35)</f>
+        <v>4163</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <f aca="false">SUM(E2:E35)</f>
+        <v>7583</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <f aca="false">SUM(F2:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <f aca="false">SUM(G2:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <f aca="false">SUM(H2:H35)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <f aca="false">SUM(I2:I35)</f>
+        <v>5486</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <f aca="false">SUM(J2:J35)</f>
+        <v>1083</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <f aca="false">SUM(K2:K35)</f>
+        <v>1014</v>
       </c>
     </row>
   </sheetData>

--- a/household_bill.xlsx
+++ b/household_bill.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="176">
   <si>
     <t xml:space="preserve">Debit</t>
   </si>
@@ -548,6 +548,12 @@
   </si>
   <si>
     <t xml:space="preserve">Remaining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dahi n milk</t>
   </si>
 </sst>
 </file>
@@ -605,7 +611,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,6 +672,12 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -701,7 +713,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -782,6 +794,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -846,7 +862,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -869,7 +885,7 @@
       <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
@@ -1634,7 +1650,7 @@
       <selection pane="bottomLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
@@ -4269,7 +4285,7 @@
       <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.77"/>
@@ -7370,7 +7386,7 @@
       <selection pane="topLeft" activeCell="Q65" activeCellId="0" sqref="Q65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
@@ -10418,7 +10434,7 @@
       <selection pane="topLeft" activeCell="P86" activeCellId="0" sqref="P86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
@@ -14514,10 +14530,10 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O29" activeCellId="0" sqref="O29"/>
+      <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -15837,13 +15853,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -15861,7 +15877,7 @@
       <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="20" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="5"/>
@@ -15880,7 +15896,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="n">
+      <c r="A2" s="19" t="n">
         <v>43947</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -15908,6 +15924,205 @@
         <v>0</v>
       </c>
       <c r="L2" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="n">
+        <v>43948</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">85/3</f>
+        <v>28.3333333333333</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">85/3</f>
+        <v>28.3333333333333</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">85/3</f>
+        <v>28.3333333333333</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="n">
+        <v>43948</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="n">
+        <v>43949</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <f aca="false">230/3</f>
+        <v>76.6666666666667</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">230/3</f>
+        <v>76.6666666666667</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">230/3</f>
+        <v>76.6666666666667</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="n">
+        <v>43949</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="n">
+        <v>43949</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">48/3</f>
+        <v>16</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="21" t="n">
+        <v>43950</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">140/3</f>
+        <v>46.6666666666667</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">140/3</f>
+        <v>46.6666666666667</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">140/3</f>
+        <v>46.6666666666667</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="s">
         <v>24</v>
       </c>
     </row>

--- a/household_bill.xlsx
+++ b/household_bill.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="177">
   <si>
     <t xml:space="preserve">Debit</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dahi n milk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milk paneer</t>
   </si>
 </sst>
 </file>
@@ -885,7 +888,7 @@
       <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
@@ -1650,7 +1653,7 @@
       <selection pane="bottomLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
@@ -4285,7 +4288,7 @@
       <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.77"/>
@@ -7386,7 +7389,7 @@
       <selection pane="topLeft" activeCell="Q65" activeCellId="0" sqref="Q65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
@@ -10434,7 +10437,7 @@
       <selection pane="topLeft" activeCell="P86" activeCellId="0" sqref="P86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
@@ -14533,7 +14536,7 @@
       <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -15853,13 +15856,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -16095,7 +16098,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="n">
+      <c r="A8" s="19" t="n">
         <v>43950</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -16123,6 +16126,77 @@
         <v>0</v>
       </c>
       <c r="L8" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">15/2+24/3</f>
+        <v>15.5</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">24/3</f>
+        <v>8</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">24+15</f>
+        <v>39</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">80/3+24/3+15</f>
+        <v>49.6666666666667</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">80/3+8</f>
+        <v>34.6666666666667</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">8+15+80/3</f>
+        <v>49.6666666666667</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">80+24+30</f>
+        <v>134</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="s">
         <v>24</v>
       </c>
     </row>

--- a/household_bill.xlsx
+++ b/household_bill.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="178">
   <si>
     <t xml:space="preserve">Debit</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t xml:space="preserve">milk paneer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet</t>
   </si>
 </sst>
 </file>
@@ -888,7 +891,7 @@
       <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
@@ -1653,7 +1656,7 @@
       <selection pane="bottomLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
@@ -4288,7 +4291,7 @@
       <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.77"/>
@@ -7389,7 +7392,7 @@
       <selection pane="topLeft" activeCell="Q65" activeCellId="0" sqref="Q65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
@@ -10437,7 +10440,7 @@
       <selection pane="topLeft" activeCell="P86" activeCellId="0" sqref="P86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
@@ -14536,7 +14539,7 @@
       <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -15856,13 +15859,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
+      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -16130,7 +16133,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="n">
+      <c r="A9" s="19" t="n">
         <v>43951</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -16165,7 +16168,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="n">
+      <c r="A10" s="19" t="n">
         <v>43952</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -16198,6 +16201,90 @@
       </c>
       <c r="L10" s="0" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">3009/3</f>
+        <v>1003</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">3009/3</f>
+        <v>1003</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">3009/3</f>
+        <v>1003</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">3009</f>
+        <v>3009</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>3009</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <f aca="false">SUM(B2:B22)</f>
+        <v>1271.33333333333</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">SUM(C2:C22)</f>
+        <v>1720.66333333333</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">SUM(D2:D22)</f>
+        <v>1271.33333333333</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">SUM(E2:E22)</f>
+        <v>4263.33</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">SUM(F2:F22)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">SUM(G2:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <f aca="false">SUM(H2:H22)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">SUM(I2:I22)</f>
+        <v>4176.33</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">SUM(J2:J22)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">SUM(K2:K22)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="0" t="n">
+        <f aca="false">SUM(I24:K24)</f>
+        <v>4263.33</v>
       </c>
     </row>
   </sheetData>

--- a/household_bill.xlsx
+++ b/household_bill.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="181">
   <si>
     <t xml:space="preserve">Debit</t>
   </si>
@@ -560,6 +560,15 @@
   </si>
   <si>
     <t xml:space="preserve">Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rice paste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhania mirchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fruit</t>
   </si>
 </sst>
 </file>
@@ -891,7 +900,7 @@
       <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
@@ -1656,7 +1665,7 @@
       <selection pane="bottomLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
@@ -4291,7 +4300,7 @@
       <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.77"/>
@@ -7392,7 +7401,7 @@
       <selection pane="topLeft" activeCell="Q65" activeCellId="0" sqref="Q65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
@@ -10440,7 +10449,7 @@
       <selection pane="topLeft" activeCell="P86" activeCellId="0" sqref="P86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
@@ -14539,7 +14548,7 @@
       <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -15862,10 +15871,10 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -16204,7 +16213,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="n">
+      <c r="A11" s="19" t="n">
         <v>43953</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -16239,22 +16248,259 @@
         <v>24</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="21" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">250/3</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">250/3</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">250/3</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">220+30</f>
+        <v>250</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <f aca="false">220/3</f>
+        <v>73.3333333333333</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <f aca="false">220/3</f>
+        <v>73.3333333333333</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">220/3</f>
+        <v>73.3333333333333</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <f aca="false">20/3</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">20/3</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">20/3</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <f aca="false">70/3</f>
+        <v>23.3333333333333</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <f aca="false">70/3</f>
+        <v>23.3333333333333</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">70/3</f>
+        <v>23.3333333333333</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="n">
         <f aca="false">SUM(B2:B22)</f>
-        <v>1271.33333333333</v>
+        <v>1511</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">SUM(C2:C22)</f>
-        <v>1720.66333333333</v>
+        <v>1935.33</v>
       </c>
       <c r="D24" s="0" t="n">
         <f aca="false">SUM(D2:D22)</f>
-        <v>1271.33333333333</v>
+        <v>1511</v>
       </c>
       <c r="E24" s="0" t="n">
         <f aca="false">SUM(E2:E22)</f>
-        <v>4263.33</v>
+        <v>4957.33</v>
       </c>
       <c r="F24" s="0" t="n">
         <f aca="false">SUM(F2:F22)</f>
@@ -16270,7 +16516,7 @@
       </c>
       <c r="I24" s="0" t="n">
         <f aca="false">SUM(I2:I22)</f>
-        <v>4176.33</v>
+        <v>4786.33</v>
       </c>
       <c r="J24" s="0" t="n">
         <f aca="false">SUM(J2:J22)</f>
@@ -16278,13 +16524,13 @@
       </c>
       <c r="K24" s="0" t="n">
         <f aca="false">SUM(K2:K22)</f>
-        <v>87</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J29" s="0" t="n">
         <f aca="false">SUM(I24:K24)</f>
-        <v>4263.33</v>
+        <v>4957.33</v>
       </c>
     </row>
   </sheetData>

--- a/household_bill.xlsx
+++ b/household_bill.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="181">
   <si>
     <t xml:space="preserve">Debit</t>
   </si>
@@ -900,7 +900,7 @@
       <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
@@ -1665,7 +1665,7 @@
       <selection pane="bottomLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
@@ -4300,7 +4300,7 @@
       <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.77"/>
@@ -7401,7 +7401,7 @@
       <selection pane="topLeft" activeCell="Q65" activeCellId="0" sqref="Q65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
@@ -10449,7 +10449,7 @@
       <selection pane="topLeft" activeCell="P86" activeCellId="0" sqref="P86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
@@ -14548,7 +14548,7 @@
       <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -15871,10 +15871,10 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -16249,7 +16249,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="n">
+      <c r="A12" s="19" t="n">
         <v>43953</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -16281,7 +16281,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="n">
+      <c r="A13" s="19" t="n">
         <v>43953</v>
       </c>
       <c r="B13" s="0" t="n">
@@ -16313,7 +16313,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="n">
+      <c r="A14" s="19" t="n">
         <v>43953</v>
       </c>
       <c r="B14" s="0" t="n">
@@ -16345,7 +16345,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="n">
+      <c r="A15" s="19" t="n">
         <v>43953</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -16381,7 +16381,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="n">
+      <c r="A16" s="19" t="n">
         <v>43953</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -16416,7 +16416,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="n">
+      <c r="A17" s="19" t="n">
         <v>43953</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -16451,7 +16451,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="n">
+      <c r="A18" s="19" t="n">
         <v>43953</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -16485,22 +16485,121 @@
         <v>24</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="n">
+        <v>43894</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <f aca="false">240/3</f>
+        <v>80</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <f aca="false">240/3</f>
+        <v>80</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">240/3</f>
+        <v>80</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21" t="n">
+        <v>43924</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="21" t="n">
+        <v>43925</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="n">
         <f aca="false">SUM(B2:B22)</f>
-        <v>1511</v>
+        <v>1607</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">SUM(C2:C22)</f>
-        <v>1935.33</v>
+        <v>2031.33</v>
       </c>
       <c r="D24" s="0" t="n">
         <f aca="false">SUM(D2:D22)</f>
-        <v>1511</v>
+        <v>1607</v>
       </c>
       <c r="E24" s="0" t="n">
         <f aca="false">SUM(E2:E22)</f>
-        <v>4957.33</v>
+        <v>5245.33</v>
       </c>
       <c r="F24" s="0" t="n">
         <f aca="false">SUM(F2:F22)</f>
@@ -16516,7 +16615,7 @@
       </c>
       <c r="I24" s="0" t="n">
         <f aca="false">SUM(I2:I22)</f>
-        <v>4786.33</v>
+        <v>5050.33</v>
       </c>
       <c r="J24" s="0" t="n">
         <f aca="false">SUM(J2:J22)</f>
@@ -16524,13 +16623,13 @@
       </c>
       <c r="K24" s="0" t="n">
         <f aca="false">SUM(K2:K22)</f>
-        <v>171</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J29" s="0" t="n">
         <f aca="false">SUM(I24:K24)</f>
-        <v>4957.33</v>
+        <v>5245.33</v>
       </c>
     </row>
   </sheetData>

--- a/household_bill.xlsx
+++ b/household_bill.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="181">
   <si>
     <t xml:space="preserve">Debit</t>
   </si>
@@ -900,7 +900,7 @@
       <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
@@ -1665,7 +1665,7 @@
       <selection pane="bottomLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
@@ -4300,7 +4300,7 @@
       <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.77"/>
@@ -7401,7 +7401,7 @@
       <selection pane="topLeft" activeCell="Q65" activeCellId="0" sqref="Q65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
@@ -10449,7 +10449,7 @@
       <selection pane="topLeft" activeCell="P86" activeCellId="0" sqref="P86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
@@ -14544,11 +14544,11 @@
   </sheetPr>
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -15868,13 +15868,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -16487,7 +16487,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="n">
-        <v>43894</v>
+        <v>43955</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">240/3</f>
@@ -16521,8 +16521,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="n">
-        <v>43924</v>
+      <c r="A20" s="19" t="n">
+        <v>43954</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>8</v>
@@ -16553,8 +16553,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="n">
-        <v>43925</v>
+      <c r="A21" s="19" t="n">
+        <v>43955</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>8</v>
@@ -16584,52 +16584,236 @@
         <v>24</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="n">
+        <v>43957</v>
+      </c>
       <c r="B24" s="0" t="n">
-        <f aca="false">SUM(B2:B22)</f>
-        <v>1607</v>
+        <v>8</v>
       </c>
       <c r="C24" s="0" t="n">
-        <f aca="false">SUM(C2:C22)</f>
-        <v>2031.33</v>
+        <v>8</v>
       </c>
       <c r="D24" s="0" t="n">
-        <f aca="false">SUM(D2:D22)</f>
-        <v>1607</v>
+        <v>8</v>
       </c>
       <c r="E24" s="0" t="n">
-        <f aca="false">SUM(E2:E22)</f>
-        <v>5245.33</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <f aca="false">SUM(F2:F22)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <f aca="false">SUM(G2:G22)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <f aca="false">SUM(H2:H22)</f>
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="I24" s="0" t="n">
-        <f aca="false">SUM(I2:I22)</f>
-        <v>5050.33</v>
+        <v>24</v>
       </c>
       <c r="J24" s="0" t="n">
-        <f aca="false">SUM(J2:J22)</f>
         <v>0</v>
       </c>
       <c r="K24" s="0" t="n">
-        <f aca="false">SUM(K2:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">80/3</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">80/3</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">80/3</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">520/3</f>
+        <v>173.333333333333</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">520/3</f>
+        <v>173.333333333333</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">520/3</f>
+        <v>173.333333333333</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="21"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="21"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="21"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="21"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="21"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="21"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="n">
+        <f aca="false">SUM(B2:B26)</f>
+        <v>1831</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">SUM(C2:C26)</f>
+        <v>2255.33</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">SUM(D2:D26)</f>
+        <v>1831</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">SUM(E2:E26)</f>
+        <v>5917.33</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">SUM(F2:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">SUM(G2:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <f aca="false">SUM(H2:H26)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <f aca="false">SUM(I2:I26)</f>
+        <v>5202.33</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <f aca="false">SUM(J2:J26)</f>
+        <v>520</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">SUM(K2:K26)</f>
         <v>195</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="0" t="n">
-        <f aca="false">SUM(I24:K24)</f>
-        <v>5245.33</v>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J38" s="0" t="n">
+        <f aca="false">SUM(I33:K33)</f>
+        <v>5917.33</v>
       </c>
     </row>
   </sheetData>

--- a/household_bill.xlsx
+++ b/household_bill.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="183">
   <si>
     <t xml:space="preserve">Debit</t>
   </si>
@@ -569,17 +569,22 @@
   </si>
   <si>
     <t xml:space="preserve">fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milk dahi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarbuj sabji</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -728,7 +733,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -811,10 +816,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -900,7 +901,7 @@
       <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
@@ -1665,7 +1666,7 @@
       <selection pane="bottomLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
@@ -4300,7 +4301,7 @@
       <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.77"/>
@@ -7401,7 +7402,7 @@
       <selection pane="topLeft" activeCell="Q65" activeCellId="0" sqref="Q65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
@@ -10449,7 +10450,7 @@
       <selection pane="topLeft" activeCell="P86" activeCellId="0" sqref="P86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
@@ -14548,7 +14549,7 @@
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -15868,13 +15869,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M37" activeCellId="0" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -16585,7 +16586,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="n">
+      <c r="A22" s="19" t="n">
         <v>43955</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -16616,27 +16617,29 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="n">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="n">
         <v>43956</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>8</v>
+        <f aca="false">33/3</f>
+        <v>11</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>24</v>
+        <f aca="false">6*5.5</f>
+        <v>33</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>0</v>
@@ -16648,9 +16651,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="n">
-        <v>43957</v>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19" t="n">
+        <v>43956</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>8</v>
@@ -16681,139 +16684,323 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="n">
+      <c r="A25" s="19" t="n">
         <v>43957</v>
       </c>
       <c r="B25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B26" s="0" t="n">
         <f aca="false">80/3</f>
         <v>26.6666666666667</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C26" s="0" t="n">
         <f aca="false">80/3</f>
         <v>26.6666666666667</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D26" s="0" t="n">
         <f aca="false">80/3</f>
         <v>26.6666666666667</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F26" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="J25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="0" t="s">
+      <c r="J26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="n">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19" t="n">
         <v>43955</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B27" s="0" t="n">
         <f aca="false">520/3</f>
         <v>173.333333333333</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C27" s="0" t="n">
         <f aca="false">520/3</f>
         <v>173.333333333333</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D27" s="0" t="n">
         <f aca="false">520/3</f>
         <v>173.333333333333</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>520</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F27" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="0" t="n">
+      <c r="I27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="0" t="n">
         <v>520</v>
       </c>
-      <c r="K26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="0" t="s">
+      <c r="K27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21"/>
-    </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21"/>
+      <c r="A28" s="19" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">25/2+8</f>
+        <v>20.5</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21"/>
+      <c r="A29" s="19" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21"/>
+      <c r="A30" s="19" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21"/>
+      <c r="A31" s="19" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">55/3</f>
+        <v>18.3333333333333</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">55/3</f>
+        <v>18.3333333333333</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">55/3</f>
+        <v>18.3333333333333</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21"/>
+      <c r="A32" s="19" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">130/3</f>
+        <v>43.3333333333333</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">130/3</f>
+        <v>43.3333333333333</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">130/3</f>
+        <v>43.3333333333333</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="n">
-        <f aca="false">SUM(B2:B26)</f>
-        <v>1831</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <f aca="false">SUM(C2:C26)</f>
-        <v>2255.33</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <f aca="false">SUM(D2:D26)</f>
-        <v>1831</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <f aca="false">SUM(E2:E26)</f>
-        <v>5917.33</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <f aca="false">SUM(F2:F26)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <f aca="false">SUM(G2:G26)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <f aca="false">SUM(H2:H26)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <f aca="false">SUM(I2:I26)</f>
-        <v>5202.33</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <f aca="false">SUM(J2:J26)</f>
+      <c r="A33" s="19"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="n">
+        <f aca="false">SUM(B2:B32)</f>
+        <v>1942.16666666667</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">SUM(C2:C32)</f>
+        <v>2343.99666666667</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">SUM(D2:D32)</f>
+        <v>1942.16666666667</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">SUM(E2:E32)</f>
+        <v>6228.33</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">SUM(F2:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">SUM(G2:G32)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <f aca="false">SUM(H2:H32)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <f aca="false">SUM(I2:I32)</f>
+        <v>5513.33</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <f aca="false">SUM(J2:J32)</f>
         <v>520</v>
       </c>
-      <c r="K33" s="0" t="n">
-        <f aca="false">SUM(K2:K26)</f>
+      <c r="K34" s="0" t="n">
+        <f aca="false">SUM(K2:K32)</f>
         <v>195</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J38" s="0" t="n">
-        <f aca="false">SUM(I33:K33)</f>
-        <v>5917.33</v>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" s="0" t="n">
+        <f aca="false">SUM(I34:K34)</f>
+        <v>6228.33</v>
       </c>
     </row>
   </sheetData>

--- a/household_bill.xlsx
+++ b/household_bill.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="188">
   <si>
     <t xml:space="preserve">Debit</t>
   </si>
@@ -575,6 +575,21 @@
   </si>
   <si>
     <t xml:space="preserve">tarbuj sabji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nimbu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alu piyaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angur tarbuz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scrub</t>
   </si>
 </sst>
 </file>
@@ -901,7 +916,7 @@
       <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
@@ -1666,7 +1681,7 @@
       <selection pane="bottomLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
@@ -4301,7 +4316,7 @@
       <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.77"/>
@@ -7402,7 +7417,7 @@
       <selection pane="topLeft" activeCell="Q65" activeCellId="0" sqref="Q65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
@@ -10450,7 +10465,7 @@
       <selection pane="topLeft" activeCell="P86" activeCellId="0" sqref="P86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
@@ -14549,7 +14564,7 @@
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -15869,13 +15884,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M37" activeCellId="0" sqref="M37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M46" activeCellId="0" sqref="M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -16922,85 +16937,473 @@
         <v>43960</v>
       </c>
       <c r="B32" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="19" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B33" s="0" t="n">
         <f aca="false">130/3</f>
         <v>43.3333333333333</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C33" s="0" t="n">
         <f aca="false">130/3</f>
         <v>43.3333333333333</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D33" s="0" t="n">
         <f aca="false">130/3</f>
         <v>43.3333333333333</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E33" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F33" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I33" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="J32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="0" t="s">
+      <c r="J33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19"/>
-    </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="19" t="n">
+        <v>43961</v>
+      </c>
       <c r="B34" s="0" t="n">
-        <f aca="false">SUM(B2:B32)</f>
-        <v>1942.16666666667</v>
+        <f aca="false">220/3</f>
+        <v>73.3333333333333</v>
       </c>
       <c r="C34" s="0" t="n">
-        <f aca="false">SUM(C2:C32)</f>
-        <v>2343.99666666667</v>
+        <f aca="false">220/3</f>
+        <v>73.3333333333333</v>
       </c>
       <c r="D34" s="0" t="n">
-        <f aca="false">SUM(D2:D32)</f>
-        <v>1942.16666666667</v>
+        <f aca="false">220/3</f>
+        <v>73.3333333333333</v>
       </c>
       <c r="E34" s="0" t="n">
-        <f aca="false">SUM(E2:E32)</f>
-        <v>6228.33</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <f aca="false">SUM(F2:F32)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <f aca="false">SUM(G2:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <f aca="false">SUM(H2:H32)</f>
-        <v>0</v>
+        <v>220</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I34" s="0" t="n">
-        <f aca="false">SUM(I2:I32)</f>
-        <v>5513.33</v>
+        <v>220</v>
       </c>
       <c r="J34" s="0" t="n">
-        <f aca="false">SUM(J2:J32)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="19" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <f aca="false">461/3</f>
+        <v>153.666666666667</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <f aca="false">461/3</f>
+        <v>153.666666666667</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <f aca="false">461/3</f>
+        <v>153.666666666667</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>461</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>461</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="19" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="19" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <f aca="false">20/3</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <f aca="false">20/3</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <f aca="false">20/3</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="19" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <f aca="false">135/3</f>
+        <v>45</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <f aca="false">135/3</f>
+        <v>45</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <f aca="false">135/3</f>
+        <v>45</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="19" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <f aca="false">70/3</f>
+        <v>23.3333333333333</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <f aca="false">70/3</f>
+        <v>23.3333333333333</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <f aca="false">70/3</f>
+        <v>23.3333333333333</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="19" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <f aca="false">75/3</f>
+        <v>25</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <f aca="false">75/3</f>
+        <v>25</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <f aca="false">75/3</f>
+        <v>25</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="19" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <f aca="false">440/3</f>
+        <v>146.666666666667</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <f aca="false">440/3</f>
+        <v>146.666666666667</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <f aca="false">440/3</f>
+        <v>146.666666666667</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="19" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <f aca="false">50/3</f>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <f aca="false">50/3</f>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <f aca="false">50/3</f>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="19" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="19"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="19"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="19"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="n">
+        <f aca="false">SUM(B2:B43)</f>
+        <v>2477.5</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <f aca="false">SUM(C2:C43)</f>
+        <v>2854.33</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <f aca="false">SUM(D2:D43)</f>
+        <v>2477.5</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <f aca="false">SUM(E2:E43)</f>
+        <v>7809.33</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <f aca="false">SUM(F2:F43)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <f aca="false">SUM(G2:G43)</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <f aca="false">SUM(H2:H43)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <f aca="false">SUM(I2:I43)</f>
+        <v>7094.33</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <f aca="false">SUM(J2:J43)</f>
         <v>520</v>
       </c>
-      <c r="K34" s="0" t="n">
-        <f aca="false">SUM(K2:K32)</f>
+      <c r="K47" s="0" t="n">
+        <f aca="false">SUM(K2:K43)</f>
         <v>195</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J39" s="0" t="n">
-        <f aca="false">SUM(I34:K34)</f>
-        <v>6228.33</v>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M51" s="0" t="n">
+        <f aca="false">I47-B47</f>
+        <v>4616.83</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J52" s="0" t="n">
+        <f aca="false">SUM(I47:K47)</f>
+        <v>7809.33</v>
       </c>
     </row>
   </sheetData>

--- a/household_bill.xlsx
+++ b/household_bill.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="190">
   <si>
     <t xml:space="preserve">Debit</t>
   </si>
@@ -590,6 +590,12 @@
   </si>
   <si>
     <t xml:space="preserve">scrub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milk lassi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milk tarbuz</t>
   </si>
 </sst>
 </file>
@@ -916,7 +922,7 @@
       <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
@@ -1681,7 +1687,7 @@
       <selection pane="bottomLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
@@ -4316,7 +4322,7 @@
       <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.77"/>
@@ -7417,7 +7423,7 @@
       <selection pane="topLeft" activeCell="Q65" activeCellId="0" sqref="Q65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
@@ -10465,7 +10471,7 @@
       <selection pane="topLeft" activeCell="P86" activeCellId="0" sqref="P86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
@@ -14564,7 +14570,7 @@
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -15884,13 +15890,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M46" activeCellId="0" sqref="M46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -17344,66 +17350,237 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="19"/>
+      <c r="A44" s="19" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="19"/>
+      <c r="A45" s="19" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <f aca="false">8+15</f>
+        <v>23</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <f aca="false">30+24</f>
+        <v>54</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="19"/>
+      <c r="A46" s="19" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <f aca="false">89/3</f>
+        <v>29.6666666666667</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <f aca="false">89/3</f>
+        <v>29.6666666666667</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <f aca="false">89/3</f>
+        <v>29.6666666666667</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <f aca="false">24+65</f>
+        <v>89</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="19" t="n">
+        <v>43965</v>
+      </c>
       <c r="B47" s="0" t="n">
-        <f aca="false">SUM(B2:B43)</f>
-        <v>2477.5</v>
+        <f aca="false">104/3</f>
+        <v>34.6666666666667</v>
       </c>
       <c r="C47" s="0" t="n">
-        <f aca="false">SUM(C2:C43)</f>
-        <v>2854.33</v>
+        <f aca="false">104/3</f>
+        <v>34.6666666666667</v>
       </c>
       <c r="D47" s="0" t="n">
-        <f aca="false">SUM(D2:D43)</f>
-        <v>2477.5</v>
+        <f aca="false">104/3</f>
+        <v>34.6666666666667</v>
       </c>
       <c r="E47" s="0" t="n">
-        <f aca="false">SUM(E2:E43)</f>
-        <v>7809.33</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <f aca="false">SUM(F2:F43)</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <f aca="false">SUM(G2:G43)</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <f aca="false">SUM(H2:H43)</f>
-        <v>0</v>
+        <f aca="false">24+80</f>
+        <v>104</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>176</v>
       </c>
       <c r="I47" s="0" t="n">
-        <f aca="false">SUM(I2:I43)</f>
-        <v>7094.33</v>
+        <v>0</v>
       </c>
       <c r="J47" s="0" t="n">
-        <f aca="false">SUM(J2:J43)</f>
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="K47" s="0" t="n">
-        <f aca="false">SUM(K2:K43)</f>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M51" s="0" t="n">
-        <f aca="false">I47-B47</f>
-        <v>4616.83</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J52" s="0" t="n">
-        <f aca="false">SUM(I47:K47)</f>
-        <v>7809.33</v>
+        <v>104</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="19" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <f aca="false">1212/3</f>
+        <v>404</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <f aca="false">1212/3</f>
+        <v>404</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <f aca="false">1212/3</f>
+        <v>404</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <f aca="false">434+172+406+240-40</f>
+        <v>1212</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>1212</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="19"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="19"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="n">
+        <f aca="false">SUM(B2:B48)</f>
+        <v>2976.83333333333</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <f aca="false">SUM(C2:C48)</f>
+        <v>3338.66333333333</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">SUM(D2:D48)</f>
+        <v>2976.83333333333</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <f aca="false">SUM(E2:E48)</f>
+        <v>9292.33</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <f aca="false">SUM(F2:F48)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <f aca="false">SUM(G2:G48)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <f aca="false">SUM(H2:H48)</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <f aca="false">SUM(I2:I48)</f>
+        <v>7172.33</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <f aca="false">SUM(J2:J48)</f>
+        <v>1732</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <f aca="false">SUM(K2:K48)</f>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M55" s="0" t="n">
+        <f aca="false">I51-B51</f>
+        <v>4195.49666666667</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J56" s="0" t="n">
+        <f aca="false">SUM(I51:K51)</f>
+        <v>9292.33</v>
       </c>
     </row>
   </sheetData>

--- a/household_bill.xlsx
+++ b/household_bill.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="190">
   <si>
     <t xml:space="preserve">Debit</t>
   </si>
@@ -922,7 +922,7 @@
       <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
@@ -1687,7 +1687,7 @@
       <selection pane="bottomLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
@@ -4322,7 +4322,7 @@
       <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.77"/>
@@ -7423,7 +7423,7 @@
       <selection pane="topLeft" activeCell="Q65" activeCellId="0" sqref="Q65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
@@ -10471,7 +10471,7 @@
       <selection pane="topLeft" activeCell="P86" activeCellId="0" sqref="P86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
@@ -14570,7 +14570,7 @@
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -15890,13 +15890,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I59" activeCellId="0" sqref="I59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -17524,63 +17524,210 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="19"/>
+      <c r="A49" s="19" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="19"/>
+      <c r="A50" s="19" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <f aca="false">70/3</f>
+        <v>23.3333333333333</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <f aca="false">70/3</f>
+        <v>23.3333333333333</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <f aca="false">70/3</f>
+        <v>23.3333333333333</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="19" t="n">
+        <v>43967</v>
+      </c>
       <c r="B51" s="0" t="n">
-        <f aca="false">SUM(B2:B48)</f>
-        <v>2976.83333333333</v>
+        <f aca="false">220/3</f>
+        <v>73.3333333333333</v>
       </c>
       <c r="C51" s="0" t="n">
-        <f aca="false">SUM(C2:C48)</f>
-        <v>3338.66333333333</v>
+        <f aca="false">220/3</f>
+        <v>73.3333333333333</v>
       </c>
       <c r="D51" s="0" t="n">
-        <f aca="false">SUM(D2:D48)</f>
-        <v>2976.83333333333</v>
+        <f aca="false">220/3</f>
+        <v>73.3333333333333</v>
       </c>
       <c r="E51" s="0" t="n">
-        <f aca="false">SUM(E2:E48)</f>
-        <v>9292.33</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <f aca="false">SUM(F2:F48)</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <f aca="false">SUM(G2:G48)</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <f aca="false">SUM(H2:H48)</f>
-        <v>0</v>
+        <f aca="false">44*5</f>
+        <v>220</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="I51" s="0" t="n">
-        <f aca="false">SUM(I2:I48)</f>
-        <v>7172.33</v>
+        <v>220</v>
       </c>
       <c r="J51" s="0" t="n">
-        <f aca="false">SUM(J2:J48)</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="19" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="19"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="19"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="19"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="19"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="19"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="19"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="n">
+        <f aca="false">SUM(B2:B52)</f>
+        <v>3130.5</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <f aca="false">SUM(C2:C52)</f>
+        <v>3435.33</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <f aca="false">SUM(D2:D52)</f>
+        <v>3130.5</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <f aca="false">SUM(E2:E52)</f>
+        <v>9696.33</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <f aca="false">SUM(F2:F52)</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <f aca="false">SUM(G2:G52)</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <f aca="false">SUM(H2:H52)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <f aca="false">SUM(I2:I52)</f>
+        <v>7552.33</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <f aca="false">SUM(J2:J52)</f>
         <v>1732</v>
       </c>
-      <c r="K51" s="0" t="n">
-        <f aca="false">SUM(K2:K48)</f>
-        <v>388</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M55" s="0" t="n">
-        <f aca="false">I51-B51</f>
-        <v>4195.49666666667</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J56" s="0" t="n">
-        <f aca="false">SUM(I51:K51)</f>
-        <v>9292.33</v>
+      <c r="K59" s="0" t="n">
+        <f aca="false">SUM(K2:K52)</f>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M63" s="0" t="n">
+        <f aca="false">I59-B59</f>
+        <v>4421.83</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J64" s="0" t="n">
+        <f aca="false">SUM(I59:K59)</f>
+        <v>9696.33</v>
       </c>
     </row>
   </sheetData>

--- a/household_bill.xlsx
+++ b/household_bill.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="191">
   <si>
     <t xml:space="preserve">Debit</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t xml:space="preserve">milk tarbuz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glucon d + tang</t>
   </si>
 </sst>
 </file>
@@ -919,10 +922,10 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+      <selection pane="topLeft" activeCell="J22" activeCellId="1" sqref="57:57 J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
@@ -1684,15 +1687,13 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
+      <selection pane="bottomLeft" activeCell="Q6" activeCellId="1" sqref="57:57 Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="9.13"/>
@@ -4319,10 +4320,10 @@
   <dimension ref="A1:U93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
+      <selection pane="topLeft" activeCell="Q3" activeCellId="1" sqref="57:57 Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.77"/>
@@ -7420,10 +7421,10 @@
   <dimension ref="A1:T77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q65" activeCellId="0" sqref="Q65"/>
+      <selection pane="topLeft" activeCell="Q65" activeCellId="1" sqref="57:57 Q65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
@@ -10468,10 +10469,10 @@
   <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P86" activeCellId="0" sqref="P86"/>
+      <selection pane="topLeft" activeCell="P86" activeCellId="1" sqref="57:57 P86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
@@ -14567,10 +14568,10 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
+      <selection pane="topLeft" activeCell="J26" activeCellId="1" sqref="57:57 J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -15890,13 +15891,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I59" activeCellId="0" sqref="I59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A57" activeCellId="0" sqref="57:57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -17659,75 +17660,241 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="19"/>
+      <c r="A53" s="19" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <f aca="false">105/3</f>
+        <v>35</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <f aca="false">105/3</f>
+        <v>35</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <f aca="false">105/3</f>
+        <v>35</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19"/>
+      <c r="A54" s="19" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="19"/>
+      <c r="A55" s="19" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19"/>
+      <c r="A56" s="19" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19"/>
+      <c r="A57" s="19" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <f aca="false">101+199/2+135</f>
+        <v>335.5</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <f aca="false">101+199/2</f>
+        <v>200.5</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <f aca="false">SUM(B57:D57)</f>
+        <v>637</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>637</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="19"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="n">
-        <f aca="false">SUM(B2:B52)</f>
-        <v>3130.5</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <f aca="false">SUM(C2:C52)</f>
-        <v>3435.33</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <f aca="false">SUM(D2:D52)</f>
-        <v>3130.5</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <f aca="false">SUM(E2:E52)</f>
-        <v>9696.33</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <f aca="false">SUM(F2:F52)</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <f aca="false">SUM(G2:G52)</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <f aca="false">SUM(H2:H52)</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="0" t="n">
-        <f aca="false">SUM(I2:I52)</f>
+      <c r="A59" s="19"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="19"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="19"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="19"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="19"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="n">
+        <f aca="false">SUM(B2:B56)</f>
+        <v>3189.5</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <f aca="false">SUM(C2:C56)</f>
+        <v>3486.33</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <f aca="false">SUM(D2:D56)</f>
+        <v>3197.5</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <f aca="false">SUM(E2:E56)</f>
+        <v>9873.33</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <f aca="false">SUM(F2:F56)</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <f aca="false">SUM(G2:G56)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <f aca="false">SUM(H2:H56)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <f aca="false">SUM(I2:I56)</f>
         <v>7552.33</v>
       </c>
-      <c r="J59" s="0" t="n">
-        <f aca="false">SUM(J2:J52)</f>
+      <c r="J64" s="0" t="n">
+        <f aca="false">SUM(J2:J56)</f>
         <v>1732</v>
       </c>
-      <c r="K59" s="0" t="n">
-        <f aca="false">SUM(K2:K52)</f>
-        <v>412</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M63" s="0" t="n">
-        <f aca="false">I59-B59</f>
-        <v>4421.83</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J64" s="0" t="n">
-        <f aca="false">SUM(I59:K59)</f>
-        <v>9696.33</v>
+      <c r="K64" s="0" t="n">
+        <f aca="false">SUM(K2:K56)</f>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M68" s="0" t="n">
+        <f aca="false">I64-B64</f>
+        <v>4362.83</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J69" s="0" t="n">
+        <f aca="false">SUM(I64:K64)</f>
+        <v>9873.33</v>
       </c>
     </row>
   </sheetData>

--- a/household_bill.xlsx
+++ b/household_bill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
     <sheet name="Sheet4" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="195">
   <si>
     <t xml:space="preserve">Debit</t>
   </si>
@@ -599,16 +600,29 @@
   </si>
   <si>
     <t xml:space="preserve">glucon d + tang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dettol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last due</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarbuz milk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -757,7 +771,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -842,6 +856,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -922,10 +940,10 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="1" sqref="57:57 J22"/>
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
@@ -1687,10 +1705,10 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="Q6" activeCellId="1" sqref="57:57 Q6"/>
+      <selection pane="bottomLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.65"/>
@@ -4320,10 +4338,10 @@
   <dimension ref="A1:U93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q3" activeCellId="1" sqref="57:57 Q3"/>
+      <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.77"/>
@@ -7421,10 +7439,10 @@
   <dimension ref="A1:T77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q65" activeCellId="1" sqref="57:57 Q65"/>
+      <selection pane="topLeft" activeCell="Q65" activeCellId="0" sqref="Q65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
@@ -10469,10 +10487,10 @@
   <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P86" activeCellId="1" sqref="57:57 P86"/>
+      <selection pane="topLeft" activeCell="P86" activeCellId="0" sqref="P86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
@@ -14567,11 +14585,11 @@
   </sheetPr>
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J26" activeCellId="1" sqref="57:57 J26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -15891,13 +15909,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A57" activeCellId="0" sqref="57:57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C46" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q55" activeCellId="0" sqref="Q55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -17659,7 +17677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="19" t="n">
         <v>43968</v>
       </c>
@@ -17693,8 +17711,20 @@
       <c r="L53" s="0" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N53" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O53" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P53" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q53" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="19" t="n">
         <v>43968</v>
       </c>
@@ -17725,8 +17755,23 @@
       <c r="L54" s="0" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N54" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="17" t="n">
+        <f aca="false">B64</f>
+        <v>3588</v>
+      </c>
+      <c r="P54" s="17" t="n">
+        <f aca="false">I64</f>
+        <v>8249.33</v>
+      </c>
+      <c r="Q54" s="17" t="n">
+        <f aca="false">O54-P54</f>
+        <v>-4661.33</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="19" t="n">
         <v>43969</v>
       </c>
@@ -17757,8 +17802,23 @@
       <c r="L55" s="0" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N55" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="O55" s="17" t="n">
+        <f aca="false">C64</f>
+        <v>3650.33</v>
+      </c>
+      <c r="P55" s="17" t="n">
+        <f aca="false">J64</f>
+        <v>1772</v>
+      </c>
+      <c r="Q55" s="17" t="n">
+        <f aca="false">O55-P55</f>
+        <v>1878.33</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="19" t="n">
         <v>43970</v>
       </c>
@@ -17788,6 +17848,21 @@
       </c>
       <c r="L56" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="N56" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="O56" s="17" t="n">
+        <f aca="false">D64</f>
+        <v>3501</v>
+      </c>
+      <c r="P56" s="17" t="n">
+        <f aca="false">K64</f>
+        <v>718</v>
+      </c>
+      <c r="Q56" s="17" t="n">
+        <f aca="false">O56-P56</f>
+        <v>2783</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17826,16 +17901,135 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="19"/>
+      <c r="A58" s="19" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19"/>
+      <c r="A59" s="19" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <f aca="false">105/3</f>
+        <v>35</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <f aca="false">105/3</f>
+        <v>35</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <f aca="false">105/3</f>
+        <v>35</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="19"/>
+      <c r="A60" s="19" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="19"/>
+      <c r="A61" s="19" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="19"/>
@@ -17845,57 +18039,288 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="n">
-        <f aca="false">SUM(B2:B56)</f>
-        <v>3189.5</v>
+        <f aca="false">SUM(B2:B61)</f>
+        <v>3588</v>
       </c>
       <c r="C64" s="0" t="n">
-        <f aca="false">SUM(C2:C56)</f>
-        <v>3486.33</v>
+        <f aca="false">SUM(C2:C61)</f>
+        <v>3650.33</v>
       </c>
       <c r="D64" s="0" t="n">
-        <f aca="false">SUM(D2:D56)</f>
-        <v>3197.5</v>
+        <f aca="false">SUM(D2:D61)</f>
+        <v>3501</v>
       </c>
       <c r="E64" s="0" t="n">
-        <f aca="false">SUM(E2:E56)</f>
-        <v>9873.33</v>
+        <f aca="false">SUM(E2:E61)</f>
+        <v>10739.33</v>
       </c>
       <c r="F64" s="0" t="n">
-        <f aca="false">SUM(F2:F56)</f>
+        <f aca="false">SUM(F2:F61)</f>
         <v>0</v>
       </c>
       <c r="G64" s="0" t="n">
-        <f aca="false">SUM(G2:G56)</f>
+        <f aca="false">SUM(G2:G61)</f>
         <v>0</v>
       </c>
       <c r="H64" s="0" t="n">
-        <f aca="false">SUM(H2:H56)</f>
+        <f aca="false">SUM(H2:H61)</f>
         <v>0</v>
       </c>
       <c r="I64" s="0" t="n">
-        <f aca="false">SUM(I2:I56)</f>
-        <v>7552.33</v>
+        <f aca="false">SUM(I2:I61)</f>
+        <v>8249.33</v>
       </c>
       <c r="J64" s="0" t="n">
-        <f aca="false">SUM(J2:J56)</f>
-        <v>1732</v>
+        <f aca="false">SUM(J2:J61)</f>
+        <v>1772</v>
       </c>
       <c r="K64" s="0" t="n">
-        <f aca="false">SUM(K2:K56)</f>
-        <v>589</v>
+        <f aca="false">SUM(K2:K61)</f>
+        <v>718</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M68" s="0" t="n">
         <f aca="false">I64-B64</f>
-        <v>4362.83</v>
+        <v>4661.33</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J69" s="0" t="n">
         <f aca="false">SUM(I64:K64)</f>
-        <v>9873.33</v>
-      </c>
+        <v>10739.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1878.33</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1878.33</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1878.33</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="21" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">70/3</f>
+        <v>23.3333333333333</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">70/3</f>
+        <v>23.3333333333333</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">70/3</f>
+        <v>23.3333333333333</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="21" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <f aca="false">80/3</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">80/3</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">80/3</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">SUM(B5:D5)</f>
+        <v>307</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>307</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">74/3</f>
+        <v>24.6666666666667</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">74/3</f>
+        <v>24.6666666666667</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">74/3</f>
+        <v>24.6666666666667</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/household_bill.xlsx
+++ b/household_bill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="196">
   <si>
     <t xml:space="preserve">Debit</t>
   </si>
@@ -612,6 +612,9 @@
   </si>
   <si>
     <t xml:space="preserve">tarbuz milk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filter</t>
   </si>
 </sst>
 </file>
@@ -943,7 +946,7 @@
       <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
@@ -1708,7 +1711,7 @@
       <selection pane="bottomLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.65"/>
@@ -4341,7 +4344,7 @@
       <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.77"/>
@@ -7442,7 +7445,7 @@
       <selection pane="topLeft" activeCell="Q65" activeCellId="0" sqref="Q65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
@@ -10490,7 +10493,7 @@
       <selection pane="topLeft" activeCell="P86" activeCellId="0" sqref="P86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
@@ -14589,7 +14592,7 @@
       <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -15915,7 +15918,7 @@
       <selection pane="topLeft" activeCell="Q55" activeCellId="0" sqref="Q55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -18107,13 +18110,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -18150,7 +18153,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="n">
+      <c r="A2" s="19" t="n">
         <v>43973</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -18182,7 +18185,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="19" t="n">
         <v>43974</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -18217,7 +18220,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="19" t="n">
         <v>43974</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -18252,7 +18255,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="19" t="n">
         <v>43973</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -18285,7 +18288,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="19" t="n">
         <v>43974</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -18320,7 +18323,144 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21"/>
+      <c r="A7" s="19" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">240/3</f>
+        <v>80</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">240/3</f>
+        <v>80</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">240/3</f>
+        <v>80</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="21" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">220/3</f>
+        <v>73.3333333333333</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">220/3</f>
+        <v>73.3333333333333</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">220/3</f>
+        <v>73.3333333333333</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">80/3</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">80/3</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">80/3</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">1350/3</f>
+        <v>450</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">1350/3</f>
+        <v>450</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">1350/3</f>
+        <v>450</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1350</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1350</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/household_bill.xlsx
+++ b/household_bill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="196">
   <si>
     <t xml:space="preserve">Debit</t>
   </si>
@@ -946,7 +946,7 @@
       <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
@@ -1711,7 +1711,7 @@
       <selection pane="bottomLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.65"/>
@@ -4344,7 +4344,7 @@
       <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.77"/>
@@ -7445,7 +7445,7 @@
       <selection pane="topLeft" activeCell="Q65" activeCellId="0" sqref="Q65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
@@ -10493,7 +10493,7 @@
       <selection pane="topLeft" activeCell="P86" activeCellId="0" sqref="P86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
@@ -14592,7 +14592,7 @@
       <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -15918,7 +15918,7 @@
       <selection pane="topLeft" activeCell="Q55" activeCellId="0" sqref="Q55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -18110,13 +18110,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -18358,7 +18358,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="n">
+      <c r="A8" s="19" t="n">
         <v>43975</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -18393,7 +18393,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="n">
+      <c r="A9" s="19" t="n">
         <v>43976</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -18428,7 +18428,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="n">
+      <c r="A10" s="19" t="n">
         <v>43976</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -18459,6 +18459,41 @@
         <v>0</v>
       </c>
       <c r="L10" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">184/3</f>
+        <v>61.3333333333333</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">184/3</f>
+        <v>61.3333333333333</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">184/3</f>
+        <v>61.3333333333333</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="s">
         <v>24</v>
       </c>
     </row>

--- a/household_bill.xlsx
+++ b/household_bill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="202">
   <si>
     <t xml:space="preserve">Debit</t>
   </si>
@@ -615,6 +615,24 @@
   </si>
   <si>
     <t xml:space="preserve">filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hand wash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice + sabji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rice amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amazon horlics,dal,chana,king</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chicken swiggy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cig</t>
   </si>
 </sst>
 </file>
@@ -946,7 +964,7 @@
       <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
@@ -1711,7 +1729,7 @@
       <selection pane="bottomLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.65"/>
@@ -4344,7 +4362,7 @@
       <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.77"/>
@@ -7445,7 +7463,7 @@
       <selection pane="topLeft" activeCell="Q65" activeCellId="0" sqref="Q65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
@@ -10493,7 +10511,7 @@
       <selection pane="topLeft" activeCell="P86" activeCellId="0" sqref="P86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
@@ -14592,7 +14610,7 @@
       <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -15918,7 +15936,7 @@
       <selection pane="topLeft" activeCell="Q55" activeCellId="0" sqref="Q55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -18110,13 +18128,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K39" activeCellId="0" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -18463,38 +18481,458 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="n">
+      <c r="A11" s="19" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">189/3</f>
+        <v>63</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">189/3</f>
+        <v>63</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">189/3</f>
+        <v>63</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="n">
         <v>43978</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B12" s="0" t="n">
         <f aca="false">184/3</f>
         <v>61.3333333333333</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C12" s="0" t="n">
         <f aca="false">184/3</f>
         <v>61.3333333333333</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <f aca="false">184/3</f>
         <v>61.3333333333333</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="0" t="s">
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">500/3</f>
+        <v>166.666666666667</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">500/3</f>
+        <v>166.666666666667</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">500/3</f>
+        <v>166.666666666667</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <f aca="false">590/3</f>
+        <v>196.666666666667</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <f aca="false">590/3</f>
+        <v>196.666666666667</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">590/3</f>
+        <v>196.666666666667</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>590</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>590</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="19" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">239+(682-239)/3</f>
+        <v>386.666666666667</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">(682-239)/3</f>
+        <v>147.666666666667</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">(682-239)/3</f>
+        <v>147.666666666667</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>682</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>682</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <f aca="false">(467-150)/3</f>
+        <v>105.666666666667</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <f aca="false">(467-150)/3</f>
+        <v>105.666666666667</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">(467-150)/3</f>
+        <v>105.666666666667</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">467-150</f>
+        <v>317</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <f aca="false">80/3</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">80/3</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">80/3</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <f aca="false">80/3</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <f aca="false">80/3</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">80/3</f>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="19" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">SUM(B20:D20)</f>
+        <v>307</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>307</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <f aca="false">287/3</f>
+        <v>95.6666666666667</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <f aca="false">287/3</f>
+        <v>95.6666666666667</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">287/3</f>
+        <v>95.6666666666667</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>287</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>287</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
+        <f aca="false">SUM(B2:B27)</f>
+        <v>2151.66666666667</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">SUM(C2:C27)</f>
+        <v>3483.99666666667</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">SUM(D2:D27)</f>
+        <v>2412.66666666667</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">SUM(E2:E27)</f>
+        <v>8048.33</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">SUM(F2:F27)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">SUM(G2:G27)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <f aca="false">SUM(H2:H27)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <f aca="false">SUM(I2:I27)</f>
+        <v>4089.33</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <f aca="false">SUM(J2:J27)</f>
+        <v>3660</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <f aca="false">SUM(K2:K27)</f>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
